--- a/bank/pout-2022-09-30.xlsx
+++ b/bank/pout-2022-09-30.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingd/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28FF85-B426-7C44-A493-C9142C734340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649C7EC-D048-414B-8370-AEE7B7F08248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wd-exe-log" sheetId="6" r:id="rId1"/>
-    <sheet name="Bank_Monthly" sheetId="7" r:id="rId2"/>
+    <sheet name="Expense-Log" sheetId="6" r:id="rId1"/>
+    <sheet name="MonthlyStats" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="143">
   <si>
     <t>22-06-26</t>
   </si>
@@ -353,9 +353,6 @@
     <t>22-09-01</t>
   </si>
   <si>
-    <t>Xinji-Quaritine+7+7(train,hotel,taxi,acidtest)</t>
-  </si>
-  <si>
     <t>taxi-airport, food-airport</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>航天中心医院(437.5PhysicalExam+442.88(Teeth)</t>
   </si>
   <si>
-    <t>Tot-Expense</t>
-  </si>
-  <si>
     <t>2022-09</t>
   </si>
   <si>
@@ -542,15 +536,9 @@
     <t>ArcPointLabs(Seattle) Chase02/16</t>
   </si>
   <si>
-    <t>ArcPointLabs(Seattle) 03/01.Reciept</t>
-  </si>
-  <si>
     <t>22-01-15</t>
   </si>
   <si>
-    <t>China Visa=$140(Visa)+$200(Agent)=$340.</t>
-  </si>
-  <si>
     <t>22-09-27</t>
   </si>
   <si>
@@ -566,21 +554,12 @@
     <t>22-08-22</t>
   </si>
   <si>
-    <t>flight: (2x) CathayPacific/Alaska2291.17x2+366.58</t>
-  </si>
-  <si>
     <t>22-08-31</t>
   </si>
   <si>
-    <t>Nany+expanse</t>
-  </si>
-  <si>
     <t>gifts ($1500)</t>
   </si>
   <si>
-    <t>gift to Charlies.</t>
-  </si>
-  <si>
     <t>xieli</t>
   </si>
   <si>
@@ -638,7 +617,49 @@
     <t>2023-04</t>
   </si>
   <si>
-    <t>cash2Jcl=-3000(Ret)+1682(NC)</t>
+    <t>Shanghai-Xinji Train Ticket(800) + Taxi(200)</t>
+  </si>
+  <si>
+    <t>China Visa=$140(Visa)+$200(Agent)+$50(Urgent)=$390.</t>
+  </si>
+  <si>
+    <t>ArcPointLabs(Seattle) 03/01.Reciept Charlie</t>
+  </si>
+  <si>
+    <t>Shanghai+3x1000=3000</t>
+  </si>
+  <si>
+    <t>Xinji-Shijiazhuang Taxi -300</t>
+  </si>
+  <si>
+    <t>Shijiazhuan-Beijing Train Ticket -300</t>
+  </si>
+  <si>
+    <t>Xinji-Quaritine+7+7(hotel,taxi,acid-test) 1400</t>
+  </si>
+  <si>
+    <t>Nany+expanse:3000Y+2000Y</t>
+  </si>
+  <si>
+    <t>Quaritine +3+14 (Fr Shanhai-Xinji-Shijiazhuang-Beijing)</t>
+  </si>
+  <si>
+    <t>cash2Jcl=-2000(Ret)+1682(NC)</t>
+  </si>
+  <si>
+    <t>BeijingUtility(Phone+Water+Electric)[Web+Gas+Wuye+WinterWarm]</t>
+  </si>
+  <si>
+    <t>Tot-ExpenseY2D</t>
+  </si>
+  <si>
+    <t>gift to Charlies.(2000)</t>
+  </si>
+  <si>
+    <t>flight: (2x) CathayPacific/Alaska2291.17x2+366.58(+898wd)</t>
+  </si>
+  <si>
+    <t>Income(Y)</t>
   </si>
 </sst>
 </file>
@@ -650,7 +671,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -732,6 +753,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -982,7 +1010,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1131,6 +1159,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1348,17 +1378,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
     <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1398,18 +1429,18 @@
         <v>33</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="59">
-        <f>C2+SUM(C6:C16)+C18</f>
-        <v>2880182.02</v>
+        <f>C2+SUM(C6:C16)+C19</f>
+        <v>2882284.02</v>
       </c>
       <c r="D4" s="58">
-        <f>D2+SUM(D6:D15)+D18</f>
-        <v>44270.7</v>
+        <f>D2+SUM(D6:D15)+D19</f>
+        <v>42220.7</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="56" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
@@ -1417,21 +1448,21 @@
         <v>33</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="59">
-        <f>C2+SUM(C6:C16)+C19</f>
-        <v>2879771.13</v>
+        <f>C2+SUM(C6:C16)+C20</f>
+        <v>2881723.13</v>
       </c>
       <c r="D5" s="58">
-        <f>D2+SUM(D6:D15)+D19</f>
-        <v>41627.699999999997</v>
+        <f>D2+SUM(D6:D15)+D20</f>
+        <v>41977.7</v>
       </c>
       <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>26</v>
@@ -1443,14 +1474,14 @@
         <v>49980</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F6" s="21">
         <v>-6.88</v>
       </c>
       <c r="G6" s="43">
-        <f>C6+C18</f>
-        <v>-394995.23</v>
+        <f>C6+C19</f>
+        <v>-392893.23</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
@@ -1503,10 +1534,10 @@
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
@@ -1515,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="21">
-        <v>-6.98</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
@@ -1533,164 +1564,157 @@
       <c r="D17" s="26"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:14" s="15" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="16">
-        <f>SUM(C20:C106)</f>
-        <v>-51002.11</v>
-      </c>
-      <c r="D18" s="14">
-        <f>SUM(D20:D105)</f>
-        <v>-12492.039999999999</v>
-      </c>
-      <c r="H18" s="49">
-        <f>C18+C6</f>
-        <v>-394995.23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="63" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" s="15" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C19" s="16">
-        <f>SUM(C20:C112)</f>
-        <v>-51413</v>
+        <f>SUM(C21:C113)</f>
+        <v>-48900.109999999993</v>
       </c>
       <c r="D19" s="14">
-        <f>SUM(D20:D112)</f>
-        <v>-15135.039999999999</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="H19" s="64"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="4">
-        <v>-340</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52">
+        <f>SUM(D21:D112)</f>
+        <v>-14542.039999999999</v>
+      </c>
+      <c r="H19" s="49">
+        <f>C19+C6</f>
+        <v>-392893.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="63" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="16">
+        <f>SUM(C21:C120)</f>
+        <v>-49460.999999999993</v>
+      </c>
+      <c r="D20" s="14">
+        <f>SUM(D21:D120)</f>
+        <v>-14785.039999999999</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="4">
+        <v>-390</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52">
         <v>5000</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="30"/>
-      <c r="C21" s="23"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="21"/>
-      <c r="M21">
-        <v>1000</v>
-      </c>
       <c r="N21" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="4">
-        <v>-249</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>102</v>
-      </c>
+      <c r="E22" s="30"/>
       <c r="F22" s="21"/>
       <c r="M22">
         <v>1000</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B23" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="4">
-        <v>-435</v>
+        <v>-249</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F23" s="21"/>
       <c r="M23">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="23"/>
       <c r="D24" s="4">
-        <v>-133.6</v>
+        <v>-435</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F24" s="21"/>
       <c r="M24">
-        <v>5100</v>
+        <v>3000</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
       <c r="D25" s="4">
-        <v>-2954.8</v>
+        <v>-133.6</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F25" s="21"/>
       <c r="M25">
-        <v>1682</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="4">
-        <v>-1000</v>
+        <v>-2954.8</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F26" s="21"/>
+      <c r="M26">
+        <v>1682</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B27" s="21"/>
-      <c r="C27" s="23">
-        <v>0</v>
-      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -1698,527 +1722,508 @@
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B29" s="21"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="23"/>
+      <c r="E29" s="30" t="s">
+        <v>131</v>
+      </c>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="36">
-        <v>-1030.24</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>81</v>
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="E30" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="22">
-        <v>-314.75</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>61</v>
+      <c r="B31" s="21"/>
+      <c r="C31" s="23"/>
+      <c r="E31" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="22">
-        <v>-198.3</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>82</v>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="E32" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="22">
-        <v>-125</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>83</v>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="36">
-        <f>F34-SUM(C30:C33)</f>
-        <v>-65.860000000000127</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="47">
-        <v>-1734.15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="30"/>
-      <c r="C35" s="36">
-        <v>-3000</v>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="21"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="4">
+        <v>-1000</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="30"/>
+        <v>135</v>
+      </c>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="21"/>
       <c r="C36" s="36"/>
       <c r="D36" s="45"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="30"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="30" t="s">
-        <v>21</v>
+      <c r="E36" s="30"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="23">
+        <v>-1030.24</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C38" s="23">
-        <v>0</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="30" t="s">
-        <v>21</v>
+        <v>-314.75</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C39" s="23">
-        <v>-16560</v>
+        <v>-198.3</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="30" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="23">
-        <v>-343</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="47"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-125</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="30" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C41" s="23">
-        <v>-252</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="23">
-        <v>-150</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="23">
-        <v>-55</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="47"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="23">
-        <v>-27</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
+        <f>F41-SUM(C37:C40)</f>
+        <v>-65.860000000000127</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="47">
+        <v>-1734.15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="30"/>
+      <c r="C42" s="36"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="30"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="45"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="30"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="23">
-        <v>-10</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="23">
-        <v>-0.9</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="47"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-16560</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="23">
-        <f>F47-SUM(C38:C46)</f>
+        <v>-343</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="47"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="23">
+        <v>-252</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="47"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="23">
+        <v>-150</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="47"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="23">
+        <v>-55</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="47"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="23">
+        <v>-27</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="47"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="23">
+        <v>-10</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="47"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="23">
+        <v>-0.9</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="47"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="23">
+        <f>F54-SUM(C45:C53)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="47">
+      <c r="E54" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="47">
         <v>-17397.900000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="30"/>
-      <c r="C48" s="23"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="47"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="30"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="30" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="30"/>
+      <c r="C55" s="23"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="47"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="30"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="E50" s="35" t="s">
+      <c r="C57" s="23"/>
+      <c r="E57" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="E51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="E52" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="E53" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="E54" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="E55" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="E56" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="E57" s="33" t="s">
-        <v>20</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="32" t="s">
-        <v>5</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="C58" s="23"/>
-      <c r="E58" s="33" t="s">
-        <v>38</v>
+      <c r="E58" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="F58" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="31" t="s">
-        <v>5</v>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="23"/>
       <c r="E59" s="35" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F59" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="32" t="s">
-        <v>23</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C60" s="23"/>
-      <c r="E60" s="33" t="s">
-        <v>24</v>
+      <c r="E60" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="F60" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="32" t="s">
-        <v>0</v>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="C61" s="23"/>
       <c r="E61" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="30"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B62" s="31" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62" s="23"/>
       <c r="E62" s="35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="31" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="C63" s="23"/>
-      <c r="E63" s="35" t="s">
-        <v>1</v>
+      <c r="E63" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B64" s="32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C64" s="23"/>
       <c r="E64" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="30"/>
+      <c r="F64" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="32" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C65" s="23"/>
       <c r="E65" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="32" t="s">
-        <v>19</v>
+      <c r="B66" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="C66" s="23"/>
-      <c r="E66" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="30"/>
+      <c r="E66" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C67" s="23"/>
       <c r="E67" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="30" t="s">
-        <v>17</v>
+      <c r="B68" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="C68" s="23"/>
       <c r="E68" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="30" t="s">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F68" s="30"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="30" t="s">
-        <v>17</v>
+      <c r="B69" s="31" t="s">
+        <v>0</v>
       </c>
       <c r="C69" s="23"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="30"/>
+      <c r="E69" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="23">
-        <v>-7238</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F70" s="30"/>
+      <c r="B70" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="E70" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="23">
-        <v>-2380.5</v>
-      </c>
+      <c r="B71" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="23"/>
       <c r="E71" s="33" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="23">
-        <v>-880.38</v>
-      </c>
+      <c r="B72" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="23"/>
       <c r="E72" s="33" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="23">
-        <v>-296</v>
-      </c>
+      <c r="B73" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="23"/>
       <c r="E73" s="33" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="23">
-        <v>-232</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>57</v>
+      <c r="B74" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="E74" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="F74" s="30"/>
     </row>
@@ -2226,24 +2231,20 @@
       <c r="B75" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="23">
-        <v>-190</v>
-      </c>
+      <c r="C75" s="23"/>
       <c r="E75" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="23">
-        <v>-137</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>60</v>
-      </c>
+      <c r="C76" s="23"/>
+      <c r="E76" s="33"/>
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
@@ -2251,10 +2252,10 @@
         <v>17</v>
       </c>
       <c r="C77" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>91</v>
+        <v>-7238</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F77" s="30"/>
     </row>
@@ -2263,521 +2264,583 @@
         <v>17</v>
       </c>
       <c r="C78" s="23">
-        <f>F78-SUM(C70:C77)</f>
+        <v>-2380.5</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="23">
+        <v>-880.38</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="30"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="23">
+        <v>-296</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="23">
+        <v>-232</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="23">
+        <v>-190</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="23">
+        <v>-137</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" s="30"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="30"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="23">
+        <f>F85-SUM(C77:C84)</f>
         <v>-1353.4000000000015</v>
       </c>
-      <c r="E78" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="47">
+      <c r="E85" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="47">
         <v>-12807.28</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="32"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="22">
-        <v>-1010</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="22">
-        <v>-683</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="22">
-        <v>-544.70000000000005</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="22">
-        <v>-459.99</v>
-      </c>
-      <c r="E83" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="22">
-        <v>-416</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="21"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="22">
-        <v>-268</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F85" s="21"/>
-    </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="22">
-        <v>-259.3</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>54</v>
-      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="22">
-        <v>-120</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="C87" s="23">
+        <v>-1010</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="22">
-        <v>-34</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="C88" s="23">
+        <v>-683</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="22">
-        <v>-26.8</v>
+        <v>48</v>
+      </c>
+      <c r="C89" s="23">
+        <v>-544.70000000000005</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F89" s="21"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="23">
-        <v>-38.9</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F90" s="48">
-        <v>-3860.69</v>
-      </c>
+        <v>-459.99</v>
+      </c>
+      <c r="E90" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="21"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="21"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="33"/>
+      <c r="B91" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="23">
+        <v>-416</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="F91" s="21"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="22">
-        <v>-3591.7</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="C92" s="23">
+        <v>-268</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="F92" s="21"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="23">
+        <v>-259.3</v>
+      </c>
+      <c r="E93" s="45" t="s">
         <v>53</v>
-      </c>
-      <c r="C93" s="22">
-        <v>-2009.34</v>
-      </c>
-      <c r="E93" s="46" t="s">
-        <v>92</v>
       </c>
       <c r="F93" s="21"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="22">
-        <v>-1601</v>
-      </c>
-      <c r="E94" s="46" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="C94" s="23">
+        <v>-120</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="F94" s="21"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="22">
-        <v>-950</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>87</v>
+        <v>48</v>
+      </c>
+      <c r="C95" s="23">
+        <v>-34</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="F95" s="21"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="23">
+        <v>-26.8</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="23">
+        <v>-38.9</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="48">
+        <v>-3860.69</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="21"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="23">
+        <v>-3591.7</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99" s="21"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="23">
+        <v>-2009.34</v>
+      </c>
+      <c r="E100" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="23">
+        <v>-1601</v>
+      </c>
+      <c r="E101" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="23">
+        <v>-950</v>
+      </c>
+      <c r="E102" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="23">
+        <v>-898</v>
+      </c>
+      <c r="E103" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="23">
+        <v>-546.95000000000005</v>
+      </c>
+      <c r="E104" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="23">
+        <v>-474.7</v>
+      </c>
+      <c r="E105" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="23">
+        <v>-420</v>
+      </c>
+      <c r="E106" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="23">
+        <v>-350</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="23">
+        <v>-344.8</v>
+      </c>
+      <c r="E108" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="22">
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="23">
+        <v>-1015.6</v>
+      </c>
+      <c r="E109" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" s="48">
+        <v>-12202.09</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="23">
         <v>-898</v>
       </c>
-      <c r="E96" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F96" s="21"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="22">
-        <v>-546.95000000000005</v>
-      </c>
-      <c r="E97" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F97" s="21"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="22">
-        <v>-474.7</v>
-      </c>
-      <c r="E98" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="22">
-        <v>-420</v>
-      </c>
-      <c r="E99" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F99" s="21"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="22">
-        <v>-350</v>
-      </c>
-      <c r="E100" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100" s="21"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C101" s="22">
-        <v>-344.8</v>
-      </c>
-      <c r="E101" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F101" s="21"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C102" s="23">
-        <v>-1015.6</v>
-      </c>
-      <c r="E102" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F102" s="48">
-        <v>-12202.09</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="4">
+      <c r="D110" s="4">
         <v>-4948.92</v>
       </c>
-      <c r="E103" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F103" s="21"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="4">
-        <v>-2430.7199999999998</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" s="21"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="23"/>
-      <c r="E105" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" s="21"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="23"/>
-      <c r="E106" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F106" s="21"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="30"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="21"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="23">
-        <v>-410.89</v>
-      </c>
-      <c r="D108" s="4">
-        <v>-13</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" s="21"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109" s="34"/>
-      <c r="D109" s="4">
-        <v>-30</v>
-      </c>
-      <c r="E109" s="30" t="s">
+      <c r="E110" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="21"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="21"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="4">
-        <v>-600</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F110" s="21"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B111" s="21"/>
       <c r="C111" s="34"/>
       <c r="D111" s="4">
-        <v>-2000</v>
+        <v>-2430.7199999999998</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F111" s="21"/>
-      <c r="G111" s="53">
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="E112" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B113" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="E113" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B114" s="30"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B115" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" s="23">
+        <v>-410.89</v>
+      </c>
+      <c r="D115" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B116" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" s="34"/>
+      <c r="D116" s="4">
+        <v>-30</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B117" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="4">
+        <v>-200</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="34"/>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118" s="21"/>
+      <c r="G118" s="53">
         <v>-41627.699999999997</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="21"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="4">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="34"/>
+      <c r="D119" s="4">
         <v>0</v>
       </c>
-      <c r="E112" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F112" s="21"/>
-      <c r="G112" s="52">
-        <f>SUM(D108:D112)</f>
-        <v>-2643</v>
-      </c>
-      <c r="H112" s="2">
+      <c r="E119" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F119" s="21"/>
+      <c r="G119" s="52">
+        <f>SUM(D115:D119)</f>
+        <v>-243</v>
+      </c>
+      <c r="H119" s="2">
         <v>19303.240000000002</v>
       </c>
-      <c r="I112" s="52">
-        <f>H112+G112</f>
-        <v>16660.240000000002</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B113" s="21"/>
-      <c r="C113" s="34"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="1">
-        <f>SUM(G111:G112)</f>
-        <v>-44270.7</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B114" s="21"/>
-      <c r="C114" s="34"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="21"/>
-      <c r="C115" s="34"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B116" s="21"/>
-      <c r="C116" s="34"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B117" s="21"/>
-      <c r="C117" s="34"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B118" s="21"/>
-      <c r="C118" s="34"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B119" s="21"/>
-      <c r="C119" s="34"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B120" s="21"/>
-      <c r="C120" s="34"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="21"/>
-      <c r="C121" s="34"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B122" s="21"/>
-      <c r="C122" s="34"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I119" s="52">
+        <f>H119+G119</f>
+        <v>19060.240000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" s="23">
+        <v>-150</v>
+      </c>
+      <c r="D120" s="50"/>
+      <c r="E120" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F120" s="43">
+        <f>SUM(C115:C120)</f>
+        <v>-560.89</v>
+      </c>
+      <c r="G120" s="1">
+        <f>SUM(G118:G119)</f>
+        <v>-41870.699999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+    </row>
+    <row r="122" spans="2:9" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="21"/>
       <c r="C123" s="34"/>
       <c r="E123" s="21"/>
       <c r="F123" s="21"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B124" s="21"/>
       <c r="C124" s="34"/>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="21"/>
       <c r="C125" s="34"/>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="21"/>
       <c r="C126" s="34"/>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="21"/>
       <c r="C127" s="34"/>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="21"/>
       <c r="C128" s="34"/>
       <c r="E128" s="21"/>
@@ -2956,6 +3019,48 @@
       <c r="C157" s="34"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B158" s="21"/>
+      <c r="C158" s="34"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B159" s="21"/>
+      <c r="C159" s="34"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B160" s="21"/>
+      <c r="C160" s="34"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B161" s="21"/>
+      <c r="C161" s="34"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B162" s="21"/>
+      <c r="C162" s="34"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B163" s="21"/>
+      <c r="C163" s="34"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B164" s="21"/>
+      <c r="C164" s="34"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2965,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE6AC8-509B-A643-BB19-E41D6E7661ED}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2979,66 +3084,70 @@
     <col min="4" max="4" width="2.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="9" style="42" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="42" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D1" s="70"/>
       <c r="E1" s="70" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="66"/>
+        <v>120</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>142</v>
+      </c>
       <c r="H1" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>44</v>
-      </c>
       <c r="M1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>79</v>
-      </c>
       <c r="Q1" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="65">
@@ -3060,23 +3169,24 @@
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="22">
-        <v>-12492.04</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="14">
+        <f>-15424.04</f>
+        <v>-15424.04</v>
       </c>
       <c r="C3" s="50">
-        <v>44270.7</v>
+        <v>42220.7</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44">
-        <v>-394995.23</v>
+        <v>-392893.23</v>
       </c>
       <c r="F3" s="75">
-        <f>SUM(H3:Q3)</f>
-        <v>2880182.02</v>
+        <f>F2+E3</f>
+        <v>2882284.02</v>
       </c>
       <c r="G3" s="68"/>
       <c r="H3" s="22">
@@ -3107,28 +3217,35 @@
         <v>1000</v>
       </c>
       <c r="Q3" s="55">
-        <v>-19219.330000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-16219.33</v>
+      </c>
+      <c r="R3" s="54">
+        <f>SUM(H3:P3)</f>
+        <v>2899401.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="44">
         <v>-2643</v>
       </c>
       <c r="C4" s="50">
-        <v>41627.699999999997</v>
+        <v>41977.7</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="22">
-        <v>-410.89</v>
+        <v>-560.89</v>
       </c>
       <c r="F4" s="75">
-        <f>SUM(H4:Q4)</f>
-        <v>2896333.49</v>
-      </c>
-      <c r="G4" s="68"/>
+        <f>F3+E4+G4</f>
+        <v>2897874.5999999996</v>
+      </c>
+      <c r="G4" s="82">
+        <f>H4-H3</f>
+        <v>16151.469999999972</v>
+      </c>
       <c r="H4" s="51">
         <v>1870226.91</v>
       </c>
@@ -3157,12 +3274,16 @@
         <v>1000</v>
       </c>
       <c r="Q4" s="55">
-        <v>-19219.330000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="54">
+        <f>SUM(H4:P4)</f>
+        <v>2915552.8200000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="76" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="40"/>
@@ -3180,9 +3301,9 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="40"/>
@@ -3200,9 +3321,9 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="76" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="40"/>
@@ -3220,9 +3341,9 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="76" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="40"/>
@@ -3240,9 +3361,9 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="40"/>
@@ -3260,9 +3381,9 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="76" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="40"/>
@@ -3280,9 +3401,9 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:17" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B11" s="78"/>
       <c r="C11" s="79"/>
@@ -3300,31 +3421,40 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G12" s="62"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G13" s="62"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G14" s="62"/>
       <c r="H14" s="54"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G15" s="62"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q15" s="55">
+        <v>-16219.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G16" s="62"/>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
       <c r="J16" s="54"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="22">
+        <f>F2+E3</f>
+        <v>2882284.02</v>
+      </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.15">
       <c r="G17" s="62"/>
-      <c r="M17" s="54"/>
+      <c r="M17" s="54">
+        <f>F3+E4</f>
+        <v>2881723.13</v>
+      </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.15">
       <c r="G18" s="62"/>
@@ -3476,7 +3606,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <f>B15-B14</f>
@@ -3489,10 +3619,10 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/bank/pout-2022-09-30.xlsx
+++ b/bank/pout-2022-09-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingd/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649C7EC-D048-414B-8370-AEE7B7F08248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8B69BA-E35A-2E44-9146-92B9671CA292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense-Log" sheetId="6" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3072,7 +3072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE6AC8-509B-A643-BB19-E41D6E7661ED}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/bank/pout-2022-09-30.xlsx
+++ b/bank/pout-2022-09-30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingd/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8B69BA-E35A-2E44-9146-92B9671CA292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEB3B68-7D8B-5F4E-A54A-6050A718CFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="5560" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense-Log" sheetId="6" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
   <si>
     <t>22-06-26</t>
   </si>
@@ -660,6 +660,12 @@
   </si>
   <si>
     <t>Income(Y)</t>
+  </si>
+  <si>
+    <t>22-10-11</t>
+  </si>
+  <si>
+    <t>Identical Ideneity In Passport (Emily)</t>
   </si>
 </sst>
 </file>
@@ -811,7 +817,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1004,13 +1010,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1161,6 +1178,7 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1380,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2804,16 +2822,23 @@
       <c r="F121" s="35"/>
     </row>
     <row r="122" spans="2:9" s="81" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="35"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="35"/>
       <c r="D122" s="45"/>
       <c r="E122" s="35"/>
       <c r="F122" s="35"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="21"/>
-      <c r="C123" s="34"/>
-      <c r="E123" s="21"/>
+      <c r="B123" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="23"/>
+      <c r="D123" s="4">
+        <v>-260</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="F123" s="21"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
@@ -3072,7 +3097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE6AC8-509B-A643-BB19-E41D6E7661ED}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
